--- a/Output/Annotation/Cluster.xlsx
+++ b/Output/Annotation/Cluster.xlsx
@@ -576,7 +576,7 @@
         <v>7029.453241440796</v>
       </c>
       <c r="H2">
-        <v>-0.1424635592032629</v>
+        <v>-0.142463559203275</v>
       </c>
       <c r="I2" t="s">
         <v>47</v>
@@ -608,7 +608,7 @@
         <v>7090.915604471015</v>
       </c>
       <c r="H3">
-        <v>61.31989947101535</v>
+        <v>61.3198994710154</v>
       </c>
       <c r="I3" t="s">
         <v>47</v>
@@ -637,10 +637,10 @@
         <v>47</v>
       </c>
       <c r="G4">
-        <v>7108.86154497139</v>
+        <v>7108.861544971389</v>
       </c>
       <c r="H4">
-        <v>79.26583997139036</v>
+        <v>79.26583997139038</v>
       </c>
       <c r="I4" t="s">
         <v>47</v>
@@ -672,7 +672,7 @@
         <v>7151.591243597022</v>
       </c>
       <c r="H5">
-        <v>121.9955385970222</v>
+        <v>121.9955385970223</v>
       </c>
       <c r="I5" t="s">
         <v>47</v>
@@ -704,7 +704,7 @@
         <v>7170.38813373722</v>
       </c>
       <c r="H6">
-        <v>140.7924287372189</v>
+        <v>140.792428737219</v>
       </c>
       <c r="I6" t="s">
         <v>47</v>
@@ -800,7 +800,7 @@
         <v>7293.519659836493</v>
       </c>
       <c r="H9">
-        <v>263.9239548364941</v>
+        <v>263.9239548364942</v>
       </c>
       <c r="I9" t="s">
         <v>47</v>
@@ -864,7 +864,7 @@
         <v>7538.535917155079</v>
       </c>
       <c r="H11">
-        <v>-0.5329998449248596</v>
+        <v>-0.5329998449249178</v>
       </c>
       <c r="I11" t="s">
         <v>47</v>
@@ -896,7 +896,7 @@
         <v>7599.633430002101</v>
       </c>
       <c r="H12">
-        <v>60.56451300209935</v>
+        <v>60.5645130020994</v>
       </c>
       <c r="I12" t="s">
         <v>47</v>
@@ -925,10 +925,10 @@
         <v>47</v>
       </c>
       <c r="G13">
-        <v>7932.729228972043</v>
+        <v>7932.729228972042</v>
       </c>
       <c r="H13">
-        <v>-0.5473890279608755</v>
+        <v>-0.5473890279608861</v>
       </c>
       <c r="I13" t="s">
         <v>47</v>
@@ -1024,7 +1024,7 @@
         <v>9002.092868242158</v>
       </c>
       <c r="H16">
-        <v>-0.6553887578452933</v>
+        <v>-0.6553887578453524</v>
       </c>
       <c r="I16" t="s">
         <v>47</v>
@@ -1149,7 +1149,7 @@
         <v>9301.165311403463</v>
       </c>
       <c r="H20">
-        <v>0.2529504034665302</v>
+        <v>0.2529504034664813</v>
       </c>
       <c r="I20" t="s">
         <v>47</v>
@@ -1181,7 +1181,7 @@
         <v>9363.58697515273</v>
       </c>
       <c r="H21">
-        <v>62.67461415272599</v>
+        <v>62.67461415272613</v>
       </c>
       <c r="I21" t="s">
         <v>47</v>
@@ -1213,7 +1213,7 @@
         <v>10653.96863676656</v>
       </c>
       <c r="H22">
-        <v>-0.4883592334472269</v>
+        <v>-0.4883592334473785</v>
       </c>
       <c r="I22" t="s">
         <v>47</v>
@@ -1245,7 +1245,7 @@
         <v>13195.97405059561</v>
       </c>
       <c r="H23">
-        <v>-0.8458624043988668</v>
+        <v>-0.8458624043989003</v>
       </c>
       <c r="I23" t="s">
         <v>47</v>
@@ -1341,7 +1341,7 @@
         <v>13435.64193514399</v>
       </c>
       <c r="H26">
-        <v>238.8220221439855</v>
+        <v>238.8220221439857</v>
       </c>
       <c r="I26" t="s">
         <v>47</v>
@@ -1373,7 +1373,7 @@
         <v>13515.49972773321</v>
       </c>
       <c r="H27">
-        <v>318.6798147332077</v>
+        <v>318.6798147332078</v>
       </c>
       <c r="I27" t="s">
         <v>47</v>

--- a/Output/Annotation/Cluster.xlsx
+++ b/Output/Annotation/Cluster.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="49">
   <si>
     <t>Hits</t>
   </si>
@@ -31,7 +31,10 @@
     <t>Cluster - Protein (Revised)</t>
   </si>
   <si>
-    <t>Cluster - m (Da)</t>
+    <t>Cluster - m (Da) (mean)</t>
+  </si>
+  <si>
+    <t>Cluster - m (Da) (std)</t>
   </si>
   <si>
     <t>Cluster - Δm (Da) (Auto)</t>
@@ -515,15 +518,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -552,10 +555,13 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>449</v>
@@ -567,27 +573,30 @@
         <v>0.991</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2">
         <v>7029.453241440796</v>
       </c>
       <c r="H2">
+        <v>1.392800238234331</v>
+      </c>
+      <c r="I2">
         <v>-0.142463559203275</v>
       </c>
-      <c r="I2" t="s">
-        <v>47</v>
-      </c>
       <c r="J2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>249</v>
@@ -599,27 +608,30 @@
         <v>0.984</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3">
         <v>7090.915604471015</v>
       </c>
       <c r="H3">
+        <v>1.922543576679108</v>
+      </c>
+      <c r="I3">
         <v>61.3198994710154</v>
       </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
       <c r="J3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>141</v>
@@ -631,27 +643,30 @@
         <v>0.972</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4">
         <v>7108.861544971389</v>
       </c>
       <c r="H4">
+        <v>1.583310337264635</v>
+      </c>
+      <c r="I4">
         <v>79.26583997139038</v>
       </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
       <c r="J4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>108</v>
@@ -663,27 +678,30 @@
         <v>0.923</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5">
         <v>7151.591243597022</v>
       </c>
       <c r="H5">
+        <v>1.557105153110436</v>
+      </c>
+      <c r="I5">
         <v>121.9955385970223</v>
       </c>
-      <c r="I5" t="s">
-        <v>47</v>
-      </c>
       <c r="J5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>83</v>
@@ -695,27 +713,30 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6">
         <v>7170.38813373722</v>
       </c>
       <c r="H6">
+        <v>1.666525517055069</v>
+      </c>
+      <c r="I6">
         <v>140.792428737219</v>
       </c>
-      <c r="I6" t="s">
-        <v>47</v>
-      </c>
       <c r="J6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>104</v>
@@ -727,27 +748,30 @@
         <v>0.99</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7">
         <v>7212.914177867806</v>
       </c>
       <c r="H7">
+        <v>1.848074393256048</v>
+      </c>
+      <c r="I7">
         <v>183.3184728678071</v>
       </c>
-      <c r="I7" t="s">
-        <v>47</v>
-      </c>
       <c r="J7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>48</v>
@@ -759,27 +783,30 @@
         <v>0.98</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>7231.823642703273</v>
       </c>
       <c r="H8">
+        <v>1.66027701164532</v>
+      </c>
+      <c r="I8">
         <v>202.2279377032758</v>
       </c>
-      <c r="I8" t="s">
-        <v>47</v>
-      </c>
       <c r="J8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>63</v>
@@ -791,27 +818,30 @@
         <v>0.887</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9">
         <v>7293.519659836493</v>
       </c>
       <c r="H9">
+        <v>2.729214384955851</v>
+      </c>
+      <c r="I9">
         <v>263.9239548364942</v>
       </c>
-      <c r="I9" t="s">
-        <v>47</v>
-      </c>
       <c r="J9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>11</v>
@@ -823,27 +853,30 @@
         <v>0.917</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10">
         <v>7310.918519560986</v>
       </c>
       <c r="H10">
+        <v>1.432297866961225</v>
+      </c>
+      <c r="I10">
         <v>281.3228145609873</v>
       </c>
-      <c r="I10" t="s">
-        <v>47</v>
-      </c>
       <c r="J10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>122</v>
@@ -855,27 +888,30 @@
         <v>0.976</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11">
         <v>7538.535917155079</v>
       </c>
       <c r="H11">
+        <v>1.264822168106855</v>
+      </c>
+      <c r="I11">
         <v>-0.5329998449249178</v>
       </c>
-      <c r="I11" t="s">
-        <v>47</v>
-      </c>
       <c r="J11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>30</v>
@@ -887,27 +923,30 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12">
         <v>7599.633430002101</v>
       </c>
       <c r="H12">
+        <v>1.195407046264103</v>
+      </c>
+      <c r="I12">
         <v>60.5645130020994</v>
       </c>
-      <c r="I12" t="s">
-        <v>47</v>
-      </c>
       <c r="J12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>260</v>
@@ -919,27 +958,30 @@
         <v>0.996</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13">
         <v>7932.729228972042</v>
       </c>
       <c r="H13">
+        <v>1.076205308973178</v>
+      </c>
+      <c r="I13">
         <v>-0.5473890279608861</v>
       </c>
-      <c r="I13" t="s">
-        <v>47</v>
-      </c>
       <c r="J13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>115</v>
@@ -951,27 +993,30 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G14">
         <v>7994.031025792349</v>
       </c>
       <c r="H14">
+        <v>1.346733645758247</v>
+      </c>
+      <c r="I14">
         <v>60.75440779234189</v>
       </c>
-      <c r="I14" t="s">
-        <v>47</v>
-      </c>
       <c r="J14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -983,27 +1028,30 @@
         <v>0.9379999999999999</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15">
         <v>8122.66104853312</v>
       </c>
       <c r="H15">
+        <v>0.4862991802041621</v>
+      </c>
+      <c r="I15">
         <v>60.34183753311896</v>
       </c>
-      <c r="I15" t="s">
-        <v>47</v>
-      </c>
       <c r="J15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>122</v>
@@ -1015,27 +1063,30 @@
         <v>0.992</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G16">
         <v>9002.092868242158</v>
       </c>
       <c r="H16">
+        <v>1.098080081011764</v>
+      </c>
+      <c r="I16">
         <v>-0.6553887578453524</v>
       </c>
-      <c r="I16" t="s">
-        <v>47</v>
-      </c>
       <c r="J16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>39</v>
@@ -1047,27 +1098,30 @@
         <v>0.951</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G17">
         <v>9063.403542671384</v>
       </c>
       <c r="H17">
+        <v>1.986093385778866</v>
+      </c>
+      <c r="I17">
         <v>60.65528567138165</v>
       </c>
-      <c r="I17" t="s">
-        <v>47</v>
-      </c>
       <c r="J17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>37</v>
@@ -1079,24 +1133,27 @@
         <v>0.881</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18">
         <v>9172.079996458617</v>
       </c>
-      <c r="I18" t="s">
-        <v>47</v>
+      <c r="H18">
+        <v>1.093675575427767</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>27</v>
@@ -1108,27 +1165,30 @@
         <v>0.574</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G19">
         <v>9283.32219152896</v>
       </c>
       <c r="H19">
+        <v>1.268718106903672</v>
+      </c>
+      <c r="I19">
         <v>-17.59016947103981</v>
       </c>
-      <c r="I19" t="s">
-        <v>47</v>
-      </c>
       <c r="J19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>127</v>
@@ -1140,27 +1200,30 @@
         <v>0.852</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G20">
         <v>9301.165311403463</v>
       </c>
       <c r="H20">
+        <v>1.067033336098547</v>
+      </c>
+      <c r="I20">
         <v>0.2529504034664813</v>
       </c>
-      <c r="I20" t="s">
-        <v>47</v>
-      </c>
       <c r="J20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>37</v>
@@ -1172,27 +1235,30 @@
         <v>0.902</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G21">
         <v>9363.58697515273</v>
       </c>
       <c r="H21">
+        <v>1.506620365601518</v>
+      </c>
+      <c r="I21">
         <v>62.67461415272613</v>
       </c>
-      <c r="I21" t="s">
-        <v>47</v>
-      </c>
       <c r="J21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -1204,27 +1270,30 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G22">
         <v>10653.96863676656</v>
       </c>
       <c r="H22">
+        <v>1.007432571078325</v>
+      </c>
+      <c r="I22">
         <v>-0.4883592334473785</v>
       </c>
-      <c r="I22" t="s">
-        <v>47</v>
-      </c>
       <c r="J22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>109</v>
@@ -1236,27 +1305,30 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G23">
         <v>13195.97405059561</v>
       </c>
       <c r="H23">
+        <v>1.666805756286356</v>
+      </c>
+      <c r="I23">
         <v>-0.8458624043989003</v>
       </c>
-      <c r="I23" t="s">
-        <v>47</v>
-      </c>
       <c r="J23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>49</v>
@@ -1268,27 +1340,30 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G24">
         <v>13275.94129643662</v>
       </c>
       <c r="H24">
+        <v>1.802503509108829</v>
+      </c>
+      <c r="I24">
         <v>79.12138343661331</v>
       </c>
-      <c r="I24" t="s">
-        <v>47</v>
-      </c>
       <c r="J24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>55</v>
@@ -1300,27 +1375,30 @@
         <v>0.965</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G25">
         <v>13355.92036717417</v>
       </c>
       <c r="H25">
+        <v>1.536460512645942</v>
+      </c>
+      <c r="I25">
         <v>159.1004541741602</v>
       </c>
-      <c r="I25" t="s">
-        <v>47</v>
-      </c>
       <c r="J25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>31</v>
@@ -1332,27 +1410,30 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G26">
         <v>13435.64193514399</v>
       </c>
       <c r="H26">
+        <v>1.589211784794127</v>
+      </c>
+      <c r="I26">
         <v>238.8220221439857</v>
       </c>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
       <c r="J26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>13</v>
@@ -1364,27 +1445,30 @@
         <v>0.929</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G27">
         <v>13515.49972773321</v>
       </c>
       <c r="H27">
+        <v>1.187069969662486</v>
+      </c>
+      <c r="I27">
         <v>318.6798147332078</v>
       </c>
-      <c r="I27" t="s">
-        <v>47</v>
-      </c>
       <c r="J27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -1396,24 +1480,27 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G28">
         <v>13873.22245928571</v>
       </c>
-      <c r="I28" t="s">
-        <v>47</v>
+      <c r="H28">
+        <v>0.7787503493604044</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>86</v>
@@ -1425,19 +1512,22 @@
         <v>0.331</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G29">
         <v>10326.5418922173</v>
       </c>
-      <c r="I29" t="s">
-        <v>47</v>
+      <c r="H29">
+        <v>2896.421334586419</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="K29" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Annotation/Cluster.xlsx
+++ b/Output/Annotation/Cluster.xlsx
@@ -582,10 +582,10 @@
         <v>7029.453241440796</v>
       </c>
       <c r="H2">
-        <v>1.392800238234331</v>
+        <v>1.392800238234251</v>
       </c>
       <c r="I2">
-        <v>-0.142463559203275</v>
+        <v>-0.1424635592032629</v>
       </c>
       <c r="J2" t="s">
         <v>48</v>
@@ -617,10 +617,10 @@
         <v>7090.915604471015</v>
       </c>
       <c r="H3">
-        <v>1.922543576679108</v>
+        <v>1.92254357667905</v>
       </c>
       <c r="I3">
-        <v>61.3198994710154</v>
+        <v>61.31989947101535</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
@@ -649,13 +649,13 @@
         <v>48</v>
       </c>
       <c r="G4">
-        <v>7108.861544971389</v>
+        <v>7108.86154497139</v>
       </c>
       <c r="H4">
-        <v>1.583310337264635</v>
+        <v>1.583310337264657</v>
       </c>
       <c r="I4">
-        <v>79.26583997139038</v>
+        <v>79.26583997139036</v>
       </c>
       <c r="J4" t="s">
         <v>48</v>
@@ -687,10 +687,10 @@
         <v>7151.591243597022</v>
       </c>
       <c r="H5">
-        <v>1.557105153110436</v>
+        <v>1.557105153110047</v>
       </c>
       <c r="I5">
-        <v>121.9955385970223</v>
+        <v>121.9955385970222</v>
       </c>
       <c r="J5" t="s">
         <v>48</v>
@@ -722,10 +722,10 @@
         <v>7170.38813373722</v>
       </c>
       <c r="H6">
-        <v>1.666525517055069</v>
+        <v>1.666525517055063</v>
       </c>
       <c r="I6">
-        <v>140.792428737219</v>
+        <v>140.7924287372189</v>
       </c>
       <c r="J6" t="s">
         <v>48</v>
@@ -757,7 +757,7 @@
         <v>7212.914177867806</v>
       </c>
       <c r="H7">
-        <v>1.848074393256048</v>
+        <v>1.848074393256219</v>
       </c>
       <c r="I7">
         <v>183.3184728678071</v>
@@ -792,7 +792,7 @@
         <v>7231.823642703273</v>
       </c>
       <c r="H8">
-        <v>1.66027701164532</v>
+        <v>1.660277011645404</v>
       </c>
       <c r="I8">
         <v>202.2279377032758</v>
@@ -827,10 +827,10 @@
         <v>7293.519659836493</v>
       </c>
       <c r="H9">
-        <v>2.729214384955851</v>
+        <v>2.729214384956075</v>
       </c>
       <c r="I9">
-        <v>263.9239548364942</v>
+        <v>263.9239548364941</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
@@ -862,7 +862,7 @@
         <v>7310.918519560986</v>
       </c>
       <c r="H10">
-        <v>1.432297866961225</v>
+        <v>1.432297866960633</v>
       </c>
       <c r="I10">
         <v>281.3228145609873</v>
@@ -897,10 +897,10 @@
         <v>7538.535917155079</v>
       </c>
       <c r="H11">
-        <v>1.264822168106855</v>
+        <v>1.264822168106637</v>
       </c>
       <c r="I11">
-        <v>-0.5329998449249178</v>
+        <v>-0.5329998449248596</v>
       </c>
       <c r="J11" t="s">
         <v>48</v>
@@ -932,10 +932,10 @@
         <v>7599.633430002101</v>
       </c>
       <c r="H12">
-        <v>1.195407046264103</v>
+        <v>1.195407046264354</v>
       </c>
       <c r="I12">
-        <v>60.5645130020994</v>
+        <v>60.56451300209935</v>
       </c>
       <c r="J12" t="s">
         <v>48</v>
@@ -964,13 +964,13 @@
         <v>48</v>
       </c>
       <c r="G13">
-        <v>7932.729228972042</v>
+        <v>7932.729228972043</v>
       </c>
       <c r="H13">
-        <v>1.076205308973178</v>
+        <v>1.076205308973143</v>
       </c>
       <c r="I13">
-        <v>-0.5473890279608861</v>
+        <v>-0.5473890279608755</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
@@ -1002,7 +1002,7 @@
         <v>7994.031025792349</v>
       </c>
       <c r="H14">
-        <v>1.346733645758247</v>
+        <v>1.34673364575798</v>
       </c>
       <c r="I14">
         <v>60.75440779234189</v>
@@ -1072,10 +1072,10 @@
         <v>9002.092868242158</v>
       </c>
       <c r="H16">
-        <v>1.098080081011764</v>
+        <v>1.098080081011767</v>
       </c>
       <c r="I16">
-        <v>-0.6553887578453524</v>
+        <v>-0.6553887578452933</v>
       </c>
       <c r="J16" t="s">
         <v>48</v>
@@ -1107,7 +1107,7 @@
         <v>9063.403542671384</v>
       </c>
       <c r="H17">
-        <v>1.986093385778866</v>
+        <v>1.986093385778865</v>
       </c>
       <c r="I17">
         <v>60.65528567138165</v>
@@ -1142,7 +1142,7 @@
         <v>9172.079996458617</v>
       </c>
       <c r="H18">
-        <v>1.093675575427767</v>
+        <v>1.093675575427892</v>
       </c>
       <c r="J18" t="s">
         <v>48</v>
@@ -1209,10 +1209,10 @@
         <v>9301.165311403463</v>
       </c>
       <c r="H20">
-        <v>1.067033336098547</v>
+        <v>1.067033336098648</v>
       </c>
       <c r="I20">
-        <v>0.2529504034664813</v>
+        <v>0.2529504034665302</v>
       </c>
       <c r="J20" t="s">
         <v>48</v>
@@ -1244,10 +1244,10 @@
         <v>9363.58697515273</v>
       </c>
       <c r="H21">
-        <v>1.506620365601518</v>
+        <v>1.506620365601296</v>
       </c>
       <c r="I21">
-        <v>62.67461415272613</v>
+        <v>62.67461415272599</v>
       </c>
       <c r="J21" t="s">
         <v>48</v>
@@ -1279,10 +1279,10 @@
         <v>10653.96863676656</v>
       </c>
       <c r="H22">
-        <v>1.007432571078325</v>
+        <v>1.007432571078609</v>
       </c>
       <c r="I22">
-        <v>-0.4883592334473785</v>
+        <v>-0.4883592334472269</v>
       </c>
       <c r="J22" t="s">
         <v>48</v>
@@ -1314,10 +1314,10 @@
         <v>13195.97405059561</v>
       </c>
       <c r="H23">
-        <v>1.666805756286356</v>
+        <v>1.666805756286384</v>
       </c>
       <c r="I23">
-        <v>-0.8458624043989003</v>
+        <v>-0.8458624043988668</v>
       </c>
       <c r="J23" t="s">
         <v>48</v>
@@ -1349,7 +1349,7 @@
         <v>13275.94129643662</v>
       </c>
       <c r="H24">
-        <v>1.802503509108829</v>
+        <v>1.802503509108879</v>
       </c>
       <c r="I24">
         <v>79.12138343661331</v>
@@ -1384,7 +1384,7 @@
         <v>13355.92036717417</v>
       </c>
       <c r="H25">
-        <v>1.536460512645942</v>
+        <v>1.536460512646</v>
       </c>
       <c r="I25">
         <v>159.1004541741602</v>
@@ -1419,10 +1419,10 @@
         <v>13435.64193514399</v>
       </c>
       <c r="H26">
-        <v>1.589211784794127</v>
+        <v>1.589211784793936</v>
       </c>
       <c r="I26">
-        <v>238.8220221439857</v>
+        <v>238.8220221439855</v>
       </c>
       <c r="J26" t="s">
         <v>48</v>
@@ -1454,10 +1454,10 @@
         <v>13515.49972773321</v>
       </c>
       <c r="H27">
-        <v>1.187069969662486</v>
+        <v>1.187069969661825</v>
       </c>
       <c r="I27">
-        <v>318.6798147332078</v>
+        <v>318.6798147332077</v>
       </c>
       <c r="J27" t="s">
         <v>48</v>
@@ -1489,7 +1489,7 @@
         <v>13873.22245928571</v>
       </c>
       <c r="H28">
-        <v>0.7787503493604044</v>
+        <v>0.7787503493608308</v>
       </c>
       <c r="J28" t="s">
         <v>48</v>
